--- a/outputs-HGR-r202/test-f__UBA660_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__UBA660_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
   <si>
     <t>Row</t>
   </si>
@@ -226,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -236,14 +236,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -300,132 +304,132 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -550,7 +554,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -675,7 +679,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -800,7 +804,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -925,7 +929,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1050,7 +1054,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1175,7 +1179,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1300,7 +1304,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1425,7 +1429,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -1550,7 +1554,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -1675,7 +1679,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1800,7 +1804,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -1925,7 +1929,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -2050,7 +2054,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -2175,7 +2179,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -2300,7 +2304,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2425,7 +2429,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -2550,7 +2554,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2675,7 +2679,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -2800,7 +2804,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -2925,7 +2929,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -3050,7 +3054,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -3175,7 +3179,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24">
